--- a/biology/Zoologie/Ichthyornis/Ichthyornis.xlsx
+++ b/biology/Zoologie/Ichthyornis/Ichthyornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ichthyornis est un genre de dinosaures théropodes ressemblant à un oiseau de mer et datant du Crétacé supérieur. Ichthyornis dispar est la seule espèce connue de ce genre et de la famille des Ichthyornithidae[2]. Il partage un ancêtre commun avec les oiseaux car il appartient au clade de transition appelé Ornithurae.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ichthyornis est un genre de dinosaures théropodes ressemblant à un oiseau de mer et datant du Crétacé supérieur. Ichthyornis dispar est la seule espèce connue de ce genre et de la famille des Ichthyornithidae. Il partage un ancêtre commun avec les oiseaux car il appartient au clade de transition appelé Ornithurae.  
 </t>
         </is>
       </c>
